--- a/5CO02/muneera/feedback.xlsx
+++ b/5CO02/muneera/feedback.xlsx
@@ -612,23 +612,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -695,6 +678,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J20:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2565,22 +2565,22 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="8">
         <v>1</v>
       </c>
@@ -2598,98 +2598,98 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
       <c r="K10" s="11" t="s">
         <v>25</v>
       </c>
@@ -2713,12 +2713,12 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="4">
         <v>112</v>
       </c>
@@ -2765,12 +2765,12 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="4">
         <v>161</v>
       </c>
@@ -2817,12 +2817,12 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="4">
         <v>7</v>
       </c>
@@ -2869,12 +2869,12 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="4">
         <v>22</v>
       </c>
@@ -2921,12 +2921,12 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4">
         <v>10</v>
       </c>
@@ -2973,12 +2973,12 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4">
         <v>98</v>
       </c>
@@ -3025,12 +3025,12 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4">
         <v>69</v>
       </c>
@@ -3077,12 +3077,12 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4">
         <v>62</v>
       </c>
@@ -3129,12 +3129,12 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4">
         <v>8</v>
       </c>
@@ -3181,12 +3181,12 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4">
         <v>41</v>
       </c>
@@ -3233,12 +3233,12 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4">
         <v>47</v>
       </c>
@@ -3285,12 +3285,12 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="4">
         <v>90</v>
       </c>
@@ -3337,12 +3337,12 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="4">
         <v>41</v>
       </c>
@@ -3389,12 +3389,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="6">
         <v>70</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0.37333333333333335</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" ref="E30:J30" si="8">L11</f>
+        <f t="shared" ref="E30:H30" si="8">L11</f>
         <v>0.19</v>
       </c>
       <c r="F30" s="13">
@@ -3485,7 +3485,7 @@
         <v>0.06</v>
       </c>
       <c r="I30" s="13" t="str">
-        <f>Q11</f>
+        <f t="shared" ref="I30:I43" si="9">Q11</f>
         <v>fully agree</v>
       </c>
     </row>
@@ -3494,27 +3494,27 @@
         <v>38</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" ref="D31:D43" si="9">K12</f>
+        <f t="shared" ref="D31:D43" si="10">K12</f>
         <v>0.53666666666666663</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" ref="E31:E43" si="10">L12</f>
+        <f t="shared" ref="E31:E43" si="11">L12</f>
         <v>0.28666666666666668</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" ref="F31:F43" si="11">M12</f>
+        <f t="shared" ref="F31:F43" si="12">M12</f>
         <v>3.6666666666666667E-2</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" ref="G31:G43" si="12">N12</f>
+        <f t="shared" ref="G31:G43" si="13">N12</f>
         <v>0.11333333333333333</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" ref="H31:H43" si="13">O12</f>
+        <f t="shared" ref="H31:H43" si="14">O12</f>
         <v>2.6666666666666668E-2</v>
       </c>
       <c r="I31" s="13" t="str">
-        <f>Q12</f>
+        <f t="shared" si="9"/>
         <v>fully agree</v>
       </c>
     </row>
@@ -3523,27 +3523,27 @@
         <v>26</v>
       </c>
       <c r="D32" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="11"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="13"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="14"/>
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="I32" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="E32" s="13">
-        <f t="shared" si="10"/>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="13">
-        <f t="shared" si="12"/>
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="H32" s="13">
-        <f t="shared" si="13"/>
-        <v>0.31333333333333335</v>
-      </c>
-      <c r="I32" s="13" t="str">
-        <f>Q13</f>
         <v>disagree</v>
       </c>
     </row>
@@ -3552,27 +3552,27 @@
         <v>27</v>
       </c>
       <c r="D33" s="13">
+        <f t="shared" si="10"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="12"/>
+        <v>0.06</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="13"/>
+        <v>0.46</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="14"/>
+        <v>0.34</v>
+      </c>
+      <c r="I33" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>7.3333333333333334E-2</v>
-      </c>
-      <c r="E33" s="13">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="11"/>
-        <v>0.06</v>
-      </c>
-      <c r="G33" s="13">
-        <f t="shared" si="12"/>
-        <v>0.46</v>
-      </c>
-      <c r="H33" s="13">
-        <f t="shared" si="13"/>
-        <v>0.34</v>
-      </c>
-      <c r="I33" s="13" t="str">
-        <f>Q14</f>
         <v>disagree</v>
       </c>
     </row>
@@ -3581,27 +3581,27 @@
         <v>28</v>
       </c>
       <c r="D34" s="13">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="11"/>
+        <v>0.21</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="12"/>
+        <v>0.33666666666666667</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="13"/>
+        <v>0.17666666666666667</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="14"/>
+        <v>0.24333333333333335</v>
+      </c>
+      <c r="I34" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" si="10"/>
-        <v>0.21</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="11"/>
-        <v>0.33666666666666667</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="12"/>
-        <v>0.17666666666666667</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" si="13"/>
-        <v>0.24333333333333335</v>
-      </c>
-      <c r="I34" s="13" t="str">
-        <f>Q15</f>
         <v>not sure</v>
       </c>
     </row>
@@ -3610,27 +3610,27 @@
         <v>29</v>
       </c>
       <c r="D35" s="13">
+        <f t="shared" si="10"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="11"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="12"/>
+        <v>7.6666666666666661E-2</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="13"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="14"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="I35" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.32666666666666666</v>
-      </c>
-      <c r="E35" s="13">
-        <f t="shared" si="10"/>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="11"/>
-        <v>7.6666666666666661E-2</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="12"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="H35" s="13">
-        <f t="shared" si="13"/>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="I35" s="13" t="str">
-        <f>Q16</f>
         <v>fully agree</v>
       </c>
     </row>
@@ -3639,27 +3639,27 @@
         <v>30</v>
       </c>
       <c r="D36" s="13">
+        <f t="shared" si="10"/>
+        <v>0.23</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="11"/>
+        <v>0.26333333333333331</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="13"/>
+        <v>0.27333333333333332</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I36" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.23</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="10"/>
-        <v>0.26333333333333331</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="12"/>
-        <v>0.27333333333333332</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="13"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="I36" s="13" t="str">
-        <f>Q17</f>
         <v>disagree</v>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
         <v>31</v>
       </c>
       <c r="D37" s="13">
+        <f t="shared" si="10"/>
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="13"/>
+        <v>0.26</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="14"/>
+        <v>0.33666666666666667</v>
+      </c>
+      <c r="I37" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.20666666666666667</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="10"/>
-        <v>0.18</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="12"/>
-        <v>0.26</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="13"/>
-        <v>0.33666666666666667</v>
-      </c>
-      <c r="I37" s="13" t="str">
-        <f>Q18</f>
         <v>strongly disagree</v>
       </c>
     </row>
@@ -3697,27 +3697,27 @@
         <v>32</v>
       </c>
       <c r="D38" s="13">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="11"/>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="12"/>
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="13"/>
+        <v>0.13</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="14"/>
+        <v>0.24</v>
+      </c>
+      <c r="I38" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="E38" s="13">
-        <f t="shared" si="10"/>
-        <v>0.59333333333333338</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="11"/>
-        <v>0.01</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="12"/>
-        <v>0.13</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="13"/>
-        <v>0.24</v>
-      </c>
-      <c r="I38" s="13" t="str">
-        <f>Q19</f>
         <v>agree</v>
       </c>
     </row>
@@ -3726,27 +3726,27 @@
         <v>33</v>
       </c>
       <c r="D39" s="13">
+        <f t="shared" si="10"/>
+        <v>0.13621262458471761</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="11"/>
+        <v>0.19933554817275748</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="13"/>
+        <v>0.18936877076411959</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="14"/>
+        <v>0.47176079734219267</v>
+      </c>
+      <c r="I39" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.13621262458471761</v>
-      </c>
-      <c r="E39" s="13">
-        <f t="shared" si="10"/>
-        <v>0.19933554817275748</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="11"/>
-        <v>3.3222591362126247E-3</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="12"/>
-        <v>0.18936877076411959</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="13"/>
-        <v>0.47176079734219267</v>
-      </c>
-      <c r="I39" s="13" t="str">
-        <f>Q20</f>
         <v>strongly disagree</v>
       </c>
     </row>
@@ -3755,27 +3755,27 @@
         <v>34</v>
       </c>
       <c r="D40" s="13">
+        <f t="shared" si="10"/>
+        <v>0.15666666666666668</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F40" s="13">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="13"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="14"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="I40" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.15666666666666668</v>
-      </c>
-      <c r="E40" s="13">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F40" s="13">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
-      </c>
-      <c r="G40" s="13">
-        <f t="shared" si="12"/>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="H40" s="13">
-        <f t="shared" si="13"/>
-        <v>0.37333333333333335</v>
-      </c>
-      <c r="I40" s="13" t="str">
-        <f>Q21</f>
         <v>strongly disagree</v>
       </c>
     </row>
@@ -3784,27 +3784,27 @@
         <v>35</v>
       </c>
       <c r="D41" s="13">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="11"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="12"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="13"/>
+        <v>0.09</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="14"/>
+        <v>0.29666666666666669</v>
+      </c>
+      <c r="I41" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.3</v>
-      </c>
-      <c r="E41" s="13">
-        <f t="shared" si="10"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F41" s="13">
-        <f t="shared" si="11"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="G41" s="13">
-        <f t="shared" si="12"/>
-        <v>0.09</v>
-      </c>
-      <c r="H41" s="13">
-        <f t="shared" si="13"/>
-        <v>0.29666666666666669</v>
-      </c>
-      <c r="I41" s="13" t="str">
-        <f>Q22</f>
         <v>fully agree</v>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
         <v>39</v>
       </c>
       <c r="D42" s="13">
+        <f t="shared" si="10"/>
+        <v>0.13666666666666666</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I42" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.13666666666666666</v>
-      </c>
-      <c r="E42" s="13">
-        <f t="shared" si="10"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="F42" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
-        <f t="shared" si="12"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="13"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I42" s="13" t="str">
-        <f>Q23</f>
         <v>strongly disagree</v>
       </c>
     </row>
@@ -3842,32 +3842,43 @@
         <v>36</v>
       </c>
       <c r="D43" s="13">
+        <f t="shared" si="10"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="11"/>
+        <v>0.23</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="12"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="13"/>
+        <v>0.23666666666666666</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="14"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="I43" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="E43" s="13">
-        <f t="shared" si="10"/>
-        <v>0.23</v>
-      </c>
-      <c r="F43" s="13">
-        <f t="shared" si="11"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G43" s="13">
-        <f t="shared" si="12"/>
-        <v>0.23666666666666666</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="13"/>
-        <v>0.29333333333333333</v>
-      </c>
-      <c r="I43" s="13" t="str">
-        <f>Q24</f>
         <v>strongly disagree</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -3879,17 +3890,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="Q11:Q24">
     <cfRule type="endsWith" dxfId="1" priority="3" operator="endsWith" text="disagree">
